--- a/public/ZxTemplate.xlsx
+++ b/public/ZxTemplate.xlsx
@@ -23,7 +23,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>#{address}</t>
+    <t>Shinagawa</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -34,7 +34,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>#{name}</t>
+    <t>Chubachi</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>

--- a/public/ZxTemplate.xlsx
+++ b/public/ZxTemplate.xlsx
@@ -92,6 +92,65 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="円/楕円 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="476250" y="762000"/>
+          <a:ext cx="990600" cy="447675"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -409,5 +468,6 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/public/ZxTemplate.xlsx
+++ b/public/ZxTemplate.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>住所</t>
     <rPh sb="0" eb="2">
@@ -35,6 +35,14 @@
   </si>
   <si>
     <t>Chubachi</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>140</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〒</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -440,10 +448,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -462,6 +470,14 @@
       </c>
       <c r="B2" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/public/ZxTemplate.xlsx
+++ b/public/ZxTemplate.xlsx
@@ -23,7 +23,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>あほ</t>
+    <t>品川</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -34,11 +34,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ばか</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>まぬけ</t>
+    <t>田中</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>000-0000</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>

--- a/public/ZxTemplate.xlsx
+++ b/public/ZxTemplate.xlsx
@@ -34,7 +34,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>田中</t>
+    <t>田中太郎</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
